--- a/dist/files/xls/list-titulnyy-alboma-obrazcov.xlsx
+++ b/dist/files/xls/list-titulnyy-alboma-obrazcov.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\1SDR\global_arch\КТБ\СОТРУДНИКИ\Шишенко\500СТП к наполнению\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\OPEN_SERVER\OSPanel\domains\localhost\www\dist\files\xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,6 +16,7 @@
   </sheets>
   <definedNames>
     <definedName name="Print_Area" localSheetId="0">'ОБЛОЖКА АО'!$A$3:$R$35</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'ОБЛОЖКА АО'!$A$1:$Q$34</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -339,30 +340,30 @@
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -696,7 +697,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R36"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
       <selection activeCell="J21" sqref="J21:P21"/>
     </sheetView>
   </sheetViews>
@@ -710,7 +711,7 @@
     <col min="14" max="14" width="10.625" style="20" customWidth="1"/>
     <col min="15" max="15" width="10.5" style="20" customWidth="1"/>
     <col min="16" max="16" width="21" style="20" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="10.625" style="20" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="16.875" style="20" customWidth="1"/>
     <col min="18" max="18" width="4.625" style="20" customWidth="1"/>
     <col min="19" max="16384" width="8.75" style="20"/>
   </cols>
@@ -839,8 +840,8 @@
       <c r="R7" s="2"/>
     </row>
     <row r="8" spans="1:18" ht="21" x14ac:dyDescent="0.3">
-      <c r="A8" s="46"/>
-      <c r="B8" s="47"/>
+      <c r="A8" s="43"/>
+      <c r="B8" s="44"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -859,8 +860,8 @@
       <c r="R8" s="2"/>
     </row>
     <row r="9" spans="1:18" ht="21" x14ac:dyDescent="0.3">
-      <c r="A9" s="46"/>
-      <c r="B9" s="47"/>
+      <c r="A9" s="43"/>
+      <c r="B9" s="44"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -879,8 +880,8 @@
       <c r="R9" s="2"/>
     </row>
     <row r="10" spans="1:18" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="46"/>
-      <c r="B10" s="47"/>
+      <c r="A10" s="43"/>
+      <c r="B10" s="44"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -906,12 +907,12 @@
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
-      <c r="H11" s="47" t="s">
+      <c r="H11" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="I11" s="47"/>
-      <c r="J11" s="47"/>
-      <c r="K11" s="48"/>
+      <c r="I11" s="44"/>
+      <c r="J11" s="44"/>
+      <c r="K11" s="46"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -928,12 +929,12 @@
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
-      <c r="H12" s="47" t="s">
+      <c r="H12" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="I12" s="47"/>
-      <c r="J12" s="47"/>
-      <c r="K12" s="48"/>
+      <c r="I12" s="44"/>
+      <c r="J12" s="44"/>
+      <c r="K12" s="46"/>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -950,12 +951,12 @@
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
-      <c r="H13" s="47" t="s">
+      <c r="H13" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="I13" s="47"/>
-      <c r="J13" s="47"/>
-      <c r="K13" s="48"/>
+      <c r="I13" s="44"/>
+      <c r="J13" s="44"/>
+      <c r="K13" s="46"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -1032,12 +1033,12 @@
       <c r="E17" s="19"/>
       <c r="F17" s="21"/>
       <c r="G17" s="21"/>
-      <c r="H17" s="49" t="s">
+      <c r="H17" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="I17" s="49"/>
-      <c r="J17" s="49"/>
-      <c r="K17" s="49"/>
+      <c r="I17" s="47"/>
+      <c r="J17" s="47"/>
+      <c r="K17" s="47"/>
       <c r="L17" s="21"/>
       <c r="M17" s="21"/>
       <c r="N17" s="21"/>
@@ -1057,12 +1058,12 @@
       <c r="H18" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="I18" s="41">
+      <c r="I18" s="48">
         <f ca="1">TODAY()</f>
-        <v>43489</v>
+        <v>43496</v>
       </c>
-      <c r="J18" s="42"/>
-      <c r="K18" s="42"/>
+      <c r="J18" s="49"/>
+      <c r="K18" s="49"/>
       <c r="L18" s="21"/>
       <c r="M18" s="39"/>
       <c r="N18" s="21"/>
@@ -1117,19 +1118,19 @@
       <c r="C21" s="14"/>
       <c r="D21" s="21"/>
       <c r="E21" s="21"/>
-      <c r="F21" s="44" t="s">
+      <c r="F21" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="G21" s="45"/>
-      <c r="H21" s="45"/>
-      <c r="I21" s="45"/>
-      <c r="J21" s="43"/>
-      <c r="K21" s="43"/>
-      <c r="L21" s="43"/>
-      <c r="M21" s="43"/>
-      <c r="N21" s="43"/>
-      <c r="O21" s="43"/>
-      <c r="P21" s="43"/>
+      <c r="G21" s="42"/>
+      <c r="H21" s="42"/>
+      <c r="I21" s="42"/>
+      <c r="J21" s="45"/>
+      <c r="K21" s="45"/>
+      <c r="L21" s="45"/>
+      <c r="M21" s="45"/>
+      <c r="N21" s="45"/>
+      <c r="O21" s="45"/>
+      <c r="P21" s="45"/>
       <c r="Q21" s="3"/>
       <c r="R21" s="2"/>
     </row>
@@ -1139,19 +1140,19 @@
       <c r="C22" s="21"/>
       <c r="D22" s="21"/>
       <c r="E22" s="21"/>
-      <c r="F22" s="44" t="s">
+      <c r="F22" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="G22" s="45"/>
-      <c r="H22" s="45"/>
-      <c r="I22" s="45"/>
-      <c r="J22" s="43"/>
-      <c r="K22" s="43"/>
-      <c r="L22" s="43"/>
-      <c r="M22" s="43"/>
-      <c r="N22" s="43"/>
-      <c r="O22" s="43"/>
-      <c r="P22" s="43"/>
+      <c r="G22" s="42"/>
+      <c r="H22" s="42"/>
+      <c r="I22" s="42"/>
+      <c r="J22" s="45"/>
+      <c r="K22" s="45"/>
+      <c r="L22" s="45"/>
+      <c r="M22" s="45"/>
+      <c r="N22" s="45"/>
+      <c r="O22" s="45"/>
+      <c r="P22" s="45"/>
       <c r="Q22" s="28"/>
       <c r="R22" s="14"/>
     </row>
@@ -1161,19 +1162,19 @@
       <c r="C23" s="21"/>
       <c r="D23" s="21"/>
       <c r="E23" s="21"/>
-      <c r="F23" s="44" t="s">
+      <c r="F23" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="G23" s="45"/>
-      <c r="H23" s="45"/>
-      <c r="I23" s="45"/>
-      <c r="J23" s="43"/>
-      <c r="K23" s="43"/>
-      <c r="L23" s="43"/>
-      <c r="M23" s="43"/>
-      <c r="N23" s="43"/>
-      <c r="O23" s="43"/>
-      <c r="P23" s="43"/>
+      <c r="G23" s="42"/>
+      <c r="H23" s="42"/>
+      <c r="I23" s="42"/>
+      <c r="J23" s="45"/>
+      <c r="K23" s="45"/>
+      <c r="L23" s="45"/>
+      <c r="M23" s="45"/>
+      <c r="N23" s="45"/>
+      <c r="O23" s="45"/>
+      <c r="P23" s="45"/>
       <c r="Q23" s="28"/>
       <c r="R23" s="14"/>
     </row>
@@ -1183,19 +1184,19 @@
       <c r="C24" s="21"/>
       <c r="D24" s="21"/>
       <c r="E24" s="21"/>
-      <c r="F24" s="44" t="s">
+      <c r="F24" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="G24" s="45"/>
-      <c r="H24" s="45"/>
-      <c r="I24" s="45"/>
-      <c r="J24" s="43"/>
-      <c r="K24" s="43"/>
-      <c r="L24" s="43"/>
-      <c r="M24" s="43"/>
-      <c r="N24" s="43"/>
-      <c r="O24" s="43"/>
-      <c r="P24" s="43"/>
+      <c r="G24" s="42"/>
+      <c r="H24" s="42"/>
+      <c r="I24" s="42"/>
+      <c r="J24" s="45"/>
+      <c r="K24" s="45"/>
+      <c r="L24" s="45"/>
+      <c r="M24" s="45"/>
+      <c r="N24" s="45"/>
+      <c r="O24" s="45"/>
+      <c r="P24" s="45"/>
       <c r="Q24" s="28"/>
       <c r="R24" s="14"/>
     </row>
@@ -1205,19 +1206,19 @@
       <c r="C25" s="21"/>
       <c r="D25" s="21"/>
       <c r="E25" s="21"/>
-      <c r="F25" s="44" t="s">
+      <c r="F25" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="G25" s="45"/>
-      <c r="H25" s="45"/>
-      <c r="I25" s="45"/>
-      <c r="J25" s="43"/>
-      <c r="K25" s="43"/>
-      <c r="L25" s="43"/>
-      <c r="M25" s="43"/>
-      <c r="N25" s="43"/>
-      <c r="O25" s="43"/>
-      <c r="P25" s="43"/>
+      <c r="G25" s="42"/>
+      <c r="H25" s="42"/>
+      <c r="I25" s="42"/>
+      <c r="J25" s="45"/>
+      <c r="K25" s="45"/>
+      <c r="L25" s="45"/>
+      <c r="M25" s="45"/>
+      <c r="N25" s="45"/>
+      <c r="O25" s="45"/>
+      <c r="P25" s="45"/>
       <c r="Q25" s="28"/>
       <c r="R25" s="14"/>
     </row>
@@ -1227,17 +1228,17 @@
       <c r="C26" s="13"/>
       <c r="D26" s="21"/>
       <c r="E26" s="21"/>
-      <c r="F26" s="44"/>
-      <c r="G26" s="44"/>
-      <c r="H26" s="44"/>
-      <c r="I26" s="44"/>
-      <c r="J26" s="43"/>
-      <c r="K26" s="43"/>
-      <c r="L26" s="43"/>
-      <c r="M26" s="43"/>
-      <c r="N26" s="43"/>
-      <c r="O26" s="43"/>
-      <c r="P26" s="43"/>
+      <c r="F26" s="41"/>
+      <c r="G26" s="41"/>
+      <c r="H26" s="41"/>
+      <c r="I26" s="41"/>
+      <c r="J26" s="45"/>
+      <c r="K26" s="45"/>
+      <c r="L26" s="45"/>
+      <c r="M26" s="45"/>
+      <c r="N26" s="45"/>
+      <c r="O26" s="45"/>
+      <c r="P26" s="45"/>
       <c r="Q26" s="3"/>
       <c r="R26" s="2"/>
     </row>
@@ -1247,17 +1248,17 @@
       <c r="C27" s="13"/>
       <c r="D27" s="21"/>
       <c r="E27" s="21"/>
-      <c r="F27" s="44"/>
-      <c r="G27" s="45"/>
-      <c r="H27" s="45"/>
-      <c r="I27" s="45"/>
-      <c r="J27" s="43"/>
-      <c r="K27" s="43"/>
-      <c r="L27" s="43"/>
-      <c r="M27" s="43"/>
-      <c r="N27" s="43"/>
-      <c r="O27" s="43"/>
-      <c r="P27" s="43"/>
+      <c r="F27" s="41"/>
+      <c r="G27" s="42"/>
+      <c r="H27" s="42"/>
+      <c r="I27" s="42"/>
+      <c r="J27" s="45"/>
+      <c r="K27" s="45"/>
+      <c r="L27" s="45"/>
+      <c r="M27" s="45"/>
+      <c r="N27" s="45"/>
+      <c r="O27" s="45"/>
+      <c r="P27" s="45"/>
       <c r="Q27" s="3"/>
       <c r="R27" s="2"/>
     </row>
@@ -1267,17 +1268,17 @@
       <c r="C28" s="13"/>
       <c r="D28" s="21"/>
       <c r="E28" s="21"/>
-      <c r="F28" s="44"/>
-      <c r="G28" s="45"/>
-      <c r="H28" s="45"/>
-      <c r="I28" s="45"/>
-      <c r="J28" s="43"/>
-      <c r="K28" s="43"/>
-      <c r="L28" s="43"/>
-      <c r="M28" s="43"/>
-      <c r="N28" s="43"/>
-      <c r="O28" s="43"/>
-      <c r="P28" s="43"/>
+      <c r="F28" s="41"/>
+      <c r="G28" s="42"/>
+      <c r="H28" s="42"/>
+      <c r="I28" s="42"/>
+      <c r="J28" s="45"/>
+      <c r="K28" s="45"/>
+      <c r="L28" s="45"/>
+      <c r="M28" s="45"/>
+      <c r="N28" s="45"/>
+      <c r="O28" s="45"/>
+      <c r="P28" s="45"/>
       <c r="Q28" s="3"/>
       <c r="R28" s="2"/>
     </row>
@@ -1443,6 +1444,14 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="F26:I26"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="J24:P24"/>
     <mergeCell ref="F28:I28"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="A9:B9"/>
@@ -1459,18 +1468,10 @@
     <mergeCell ref="H17:K17"/>
     <mergeCell ref="F21:I21"/>
     <mergeCell ref="I18:K18"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="F26:I26"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="J24:P24"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
-  <pageMargins left="0.86614173228346458" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0" footer="0"/>
-  <pageSetup paperSize="8" orientation="landscape" r:id="rId1"/>
+  <pageMargins left="0.79" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0" footer="0"/>
+  <pageSetup paperSize="8" scale="96" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
   <picture r:id="rId3"/>
 </worksheet>

--- a/dist/files/xls/list-titulnyy-alboma-obrazcov.xlsx
+++ b/dist/files/xls/list-titulnyy-alboma-obrazcov.xlsx
@@ -83,9 +83,6 @@
     <t>ДАТА:</t>
   </si>
   <si>
-    <t>1.0</t>
-  </si>
-  <si>
     <t>www.Sofia-Decor.ru</t>
   </si>
   <si>
@@ -120,6 +117,9 @@
   </si>
   <si>
     <t>ПОЛИРОВКА (есть/нет)</t>
+  </si>
+  <si>
+    <t>3.0</t>
   </si>
 </sst>
 </file>
@@ -910,7 +910,7 @@
       <c r="P2" s="43"/>
       <c r="Q2" s="48">
         <f ca="1">TODAY()</f>
-        <v>43593</v>
+        <v>43598</v>
       </c>
       <c r="R2" s="43"/>
       <c r="S2" s="43"/>
@@ -936,7 +936,7 @@
       </c>
       <c r="P3" s="43"/>
       <c r="Q3" s="40" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="R3" s="43"/>
       <c r="S3" s="43"/>
@@ -955,19 +955,19 @@
       <c r="J4" s="12"/>
       <c r="K4" s="12"/>
       <c r="L4" s="46" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M4" s="46"/>
       <c r="N4" s="47" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O4" s="47"/>
       <c r="P4" s="47" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Q4" s="47"/>
       <c r="R4" s="45" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="S4" s="45"/>
       <c r="T4" s="4"/>
@@ -996,7 +996,7 @@
     </row>
     <row r="6" spans="1:20" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A6" s="41" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B6" s="42"/>
       <c r="C6" s="42"/>
@@ -1020,7 +1020,7 @@
     </row>
     <row r="7" spans="1:20" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A7" s="41" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" s="42"/>
       <c r="C7" s="42"/>
@@ -1044,7 +1044,7 @@
     </row>
     <row r="8" spans="1:20" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A8" s="41" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B8" s="42"/>
       <c r="C8" s="42"/>
@@ -1094,7 +1094,7 @@
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="44" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F10" s="44"/>
       <c r="G10" s="44"/>
@@ -1283,7 +1283,7 @@
       <c r="D18" s="3"/>
       <c r="E18" s="5"/>
       <c r="F18" s="52" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G18" s="51"/>
       <c r="H18" s="51"/>
@@ -1331,7 +1331,7 @@
       <c r="D20" s="3"/>
       <c r="E20" s="5"/>
       <c r="F20" s="52" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G20" s="51"/>
       <c r="H20" s="51"/>
@@ -1356,7 +1356,7 @@
       <c r="E21" s="3"/>
       <c r="F21" s="29"/>
       <c r="G21" s="37" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H21" s="37"/>
       <c r="I21" s="37"/>
@@ -1513,7 +1513,7 @@
       <c r="D28" s="36"/>
       <c r="E28" s="36"/>
       <c r="F28" s="34" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G28" s="34"/>
       <c r="H28" s="34"/>
@@ -1811,6 +1811,7 @@
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="R5:S5"/>
     <mergeCell ref="R6:S6"/>
+    <mergeCell ref="R7:S7"/>
     <mergeCell ref="F28:J28"/>
     <mergeCell ref="B27:E27"/>
     <mergeCell ref="B28:E28"/>
@@ -1826,7 +1827,6 @@
     <mergeCell ref="B24:C24"/>
     <mergeCell ref="D24:E24"/>
     <mergeCell ref="J21:Q21"/>
-    <mergeCell ref="R7:S7"/>
     <mergeCell ref="L8:M8"/>
     <mergeCell ref="N8:O8"/>
     <mergeCell ref="P8:Q8"/>
